--- a/Armado de datos.xlsx
+++ b/Armado de datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b08b2354c89e6104/Escritorio/BD2Obligatorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="265" documentId="8_{2A245B25-6852-4185-9E39-006DC45A0CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED56DB94-8EF0-436F-950D-4A0A3E20CC42}"/>
+  <xr:revisionPtr revIDLastSave="266" documentId="8_{2A245B25-6852-4185-9E39-006DC45A0CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A949A0F-82E1-421E-9A09-A7AED326EDFB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00920737-040F-45E5-AEE3-74C577A7479C}"/>
+    <workbookView minimized="1" xWindow="-20475" yWindow="4815" windowWidth="20460" windowHeight="10770" activeTab="5" xr2:uid="{00920737-040F-45E5-AEE3-74C577A7479C}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -818,10 +818,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{88546C8D-CC65-45A7-AC99-F21201AB1B29}" name="Propietarios" displayName="Propietarios" ref="A1:E13" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="A1:E13" xr:uid="{88546C8D-CC65-45A7-AC99-F21201AB1B29}"/>
@@ -902,13 +898,7 @@
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{83AF33B4-9FE7-4FBB-B957-C7AD827CC3F6}" name="ReservaServicio" displayName="ReservaServicio" ref="A1:D48" totalsRowShown="0">
-  <autoFilter ref="A1:D48" xr:uid="{83AF33B4-9FE7-4FBB-B957-C7AD827CC3F6}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="17"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:D48" xr:uid="{83AF33B4-9FE7-4FBB-B957-C7AD827CC3F6}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5924CCE3-B5AF-49AD-AC79-2D313EA5F72A}" name="ReservaID"/>
     <tableColumn id="2" xr3:uid="{74155396-39C6-4109-9CFF-0305B5D78D83}" name="ServicioID"/>
@@ -2952,7 +2942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70A4824-BFAD-4B1B-A242-FF660E971EC6}">
   <dimension ref="A2:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12:D16"/>
     </sheetView>
   </sheetViews>
@@ -4250,7 +4240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{910AD704-2958-4FC7-AA15-89D33F13C8C1}">
   <dimension ref="A2:K58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -6217,7 +6207,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6243,7 +6233,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>36</v>
       </c>
@@ -6258,7 +6248,7 @@
         <v>(36,'PELUQUERIA',4),</v>
       </c>
     </row>
-    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>35</v>
       </c>
@@ -6282,7 +6272,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>43</v>
       </c>
@@ -6309,7 +6299,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>29</v>
       </c>
@@ -6336,7 +6326,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -6363,7 +6353,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>54</v>
       </c>
@@ -6390,7 +6380,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>34</v>
       </c>
@@ -6420,7 +6410,7 @@
         <v>(17,'ALIMENTACION_ESPECIAL',3),</v>
       </c>
     </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12</v>
       </c>
@@ -6435,7 +6425,7 @@
         <v>(12,'JUEGO_GUIADO',7),</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>53</v>
       </c>
@@ -6450,7 +6440,7 @@
         <v>(53,'ALIMENTACION_ESPECIAL',3),</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>29</v>
       </c>
@@ -6465,7 +6455,7 @@
         <v>(29,'PELUQUERIA',2),</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6480,7 +6470,7 @@
         <v>(11,'PELUQUERIA',1),</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>45</v>
       </c>
@@ -6495,7 +6485,7 @@
         <v>(45,'BAÑO',5),</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>15</v>
       </c>
@@ -6510,7 +6500,7 @@
         <v>(15,'PELUQUERIA',4),</v>
       </c>
     </row>
-    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -6525,7 +6515,7 @@
         <v>(6,'JUEGO_GUIADO',8),</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -6540,7 +6530,7 @@
         <v>(10,'CORTE_DE_UNAS',4),</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>41</v>
       </c>
@@ -6555,7 +6545,7 @@
         <v>(41,'CONTROL_PARASITOS',6),</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
@@ -6570,7 +6560,7 @@
         <v>(6,'CONTROL_PARASITOS',6),</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>54</v>
       </c>
@@ -6585,7 +6575,7 @@
         <v>(54,'JUEGO_GUIADO',3),</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>9</v>
       </c>
@@ -6600,7 +6590,7 @@
         <v>(9,'PELUQUERIA',8),</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>54</v>
       </c>
@@ -6615,7 +6605,7 @@
         <v>(54,'ALIMENTACION_ESPECIAL',1),</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -6630,7 +6620,7 @@
         <v>(5,'ALIMENTACION_ESPECIAL',2),</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>32</v>
       </c>
@@ -6645,7 +6635,7 @@
         <v>(32,'BAÑO',4),</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>47</v>
       </c>
@@ -6660,7 +6650,7 @@
         <v>(47,'CORTE_DE_UNAS',2),</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>49</v>
       </c>
@@ -6675,7 +6665,7 @@
         <v>(49,'PELUQUERIA',8),</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>55</v>
       </c>
@@ -6690,7 +6680,7 @@
         <v>(55,'PELUQUERIA',3),</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>43</v>
       </c>
@@ -6705,7 +6695,7 @@
         <v>(43,'CONTROL_PARASITOS',3),</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>20</v>
       </c>
@@ -6720,7 +6710,7 @@
         <v>(20,'ALIMENTACION_ESPECIAL',3),</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>25</v>
       </c>
@@ -6735,7 +6725,7 @@
         <v>(25,'CONTROL_PARASITOS',2),</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>18</v>
       </c>
@@ -6750,7 +6740,7 @@
         <v>(18,'JUEGO_GUIADO',6),</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>40</v>
       </c>
@@ -6765,7 +6755,7 @@
         <v>(40,'CONTROL_PARASITOS',2),</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>35</v>
       </c>
@@ -6780,7 +6770,7 @@
         <v>(35,'ALIMENTACION_ESPECIAL',2),</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -6810,7 +6800,7 @@
         <v>(17,'BAÑO',3),</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11</v>
       </c>
@@ -6840,7 +6830,7 @@
         <v>(17,'PELUQUERIA',2),</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>32</v>
       </c>
@@ -6855,7 +6845,7 @@
         <v>(32,'BAÑO',4),</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>7</v>
       </c>
@@ -6870,7 +6860,7 @@
         <v>(7,'CORTE_DE_UNAS',7),</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>27</v>
       </c>
@@ -6885,7 +6875,7 @@
         <v>(27,'JUEGO_GUIADO',5),</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>11</v>
       </c>
@@ -6900,7 +6890,7 @@
         <v>(11,'ALIMENTACION_ESPECIAL',2),</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -6915,7 +6905,7 @@
         <v>(41,'CORTE_DE_UNAS',6),</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>48</v>
       </c>
@@ -6930,7 +6920,7 @@
         <v>(48,'CONTROL_PARASITOS',1),</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>22</v>
       </c>
@@ -6945,7 +6935,7 @@
         <v>(22,'JUEGO_GUIADO',6),</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
@@ -6960,7 +6950,7 @@
         <v>(42,'JUEGO_GUIADO',6),</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
@@ -6975,7 +6965,7 @@
         <v>(43,'ALIMENTACION_ESPECIAL',8),</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>9</v>
       </c>
@@ -6990,7 +6980,7 @@
         <v>(9,'BAÑO',3),</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>44</v>
       </c>
